--- a/outputs/historical_hdd_thresholds.xlsx
+++ b/outputs/historical_hdd_thresholds.xlsx
@@ -1215,79 +1215,79 @@
         </is>
       </c>
       <c r="B13" s="10" t="n">
-        <v>-27</v>
+        <v>-122</v>
       </c>
       <c r="C13" s="10" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D13" s="10" t="n">
-        <v>7</v>
+        <v>-28</v>
       </c>
       <c r="E13" s="10" t="n">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="F13" s="10" t="n">
-        <v>-64</v>
+        <v>-105</v>
       </c>
       <c r="G13" s="10" t="n">
-        <v>-42</v>
+        <v>-16</v>
       </c>
       <c r="H13" s="10" t="n">
-        <v>11</v>
+        <v>-19</v>
       </c>
       <c r="I13" s="10" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J13" s="10" t="n">
-        <v>-35</v>
+        <v>-40</v>
       </c>
       <c r="K13" s="10" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L13" s="10" t="n">
-        <v>-17</v>
+        <v>-15</v>
       </c>
       <c r="M13" s="10" t="n">
-        <v>-52</v>
+        <v>-36</v>
       </c>
       <c r="N13" s="10" t="n">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="O13" s="10" t="n">
-        <v>-22</v>
+        <v>-25</v>
       </c>
       <c r="P13" s="10" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="Q13" s="10" t="n">
-        <v>-80</v>
+        <v>-72</v>
       </c>
       <c r="R13" s="10" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="S13" s="10" t="n">
-        <v>-46</v>
+        <v>-41</v>
       </c>
       <c r="T13" s="10" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="U13" s="10" t="n">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="V13" s="10" t="n">
         <v>-25</v>
       </c>
       <c r="W13" s="10" t="n">
-        <v>-80</v>
+        <v>-122</v>
       </c>
       <c r="X13" s="10" t="n">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="Y13" s="11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Z13" s="10" t="n">
-        <v>3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="14">
@@ -1297,73 +1297,73 @@
         </is>
       </c>
       <c r="B14" s="5" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C14" s="5" t="n">
         <v>86</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>72</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M14" s="5" t="n">
+        <v>71</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>83</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>73</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="5" t="n">
         <v>70</v>
       </c>
-      <c r="N14" s="5" t="n">
-        <v>87</v>
-      </c>
-      <c r="O14" s="5" t="n">
-        <v>71</v>
-      </c>
-      <c r="P14" s="5" t="n">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="5" t="n">
-        <v>65</v>
-      </c>
       <c r="R14" s="5" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S14" s="5" t="n">
         <v>72</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="U14" s="5" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="V14" s="5" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W14" s="5" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="X14" s="5" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y14" s="12" t="n">
         <v>77</v>

--- a/outputs/historical_hdd_thresholds.xlsx
+++ b/outputs/historical_hdd_thresholds.xlsx
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="B13" s="10" t="n">
-        <v>-122</v>
+        <v>10</v>
       </c>
       <c r="C13" s="10" t="n">
         <v>40</v>
@@ -1278,7 +1278,7 @@
         <v>-25</v>
       </c>
       <c r="W13" s="10" t="n">
-        <v>-122</v>
+        <v>-105</v>
       </c>
       <c r="X13" s="10" t="n">
         <v>101</v>
@@ -1287,7 +1287,7 @@
         <v>2</v>
       </c>
       <c r="Z13" s="10" t="n">
-        <v>-4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="B14" s="5" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C14" s="5" t="n">
         <v>86</v>
@@ -1369,7 +1369,7 @@
         <v>77</v>
       </c>
       <c r="Z14" s="5" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
